--- a/biology/Botanique/Populus_trichocarpa/Populus_trichocarpa.xlsx
+++ b/biology/Botanique/Populus_trichocarpa/Populus_trichocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Populus trichocarpa, aussi appelé peuplier de l'Ouest, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un peuplier à feuilles caduques très semblable au peuplier baumier avec lequel il s'hybride aisément quand leur aires se chevauchent.  Il est le plus grand feuillu indigène de Colombie-Britannique.  Il est aussi appelé peuplier baumier de l'Ouest, peuplier occidental et peuplier à fruit velu[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Populus trichocarpa, aussi appelé peuplier de l'Ouest, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un peuplier à feuilles caduques très semblable au peuplier baumier avec lequel il s'hybride aisément quand leur aires se chevauchent.  Il est le plus grand feuillu indigène de Colombie-Britannique.  Il est aussi appelé peuplier baumier de l'Ouest, peuplier occidental et peuplier à fruit velu.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : épi simple
@@ -553,13 +567,15 @@
           <t>Utilisation comme espèce modèle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus trichocarpa présente plusieurs qualités faisant de lui un bon modèle d’étude pour comprendre la physiologie des arbres.
 Sa croissance est très rapide
 Importance économique, il est très recherché par les industriels
 La taille de son génome
-La séquence du génome a été publiée en 2006. Le génome contient 485±10 millions de paires de bases réparties sur 19 chromosomes. Environ 41 335 gènes codant des protéines ont été identifiés[2]. Cette étude permettra de contribuer aux travaux concernant l’amélioration de la résistance du peuplier aux pathogènes et insectes phytophages, la physiologie et la génétique des arbres et de la formation du bois. Elle contribuera aussi à mieux comprendre l’évolution des Angiospermes.
+La séquence du génome a été publiée en 2006. Le génome contient 485±10 millions de paires de bases réparties sur 19 chromosomes. Environ 41 335 gènes codant des protéines ont été identifiés. Cette étude permettra de contribuer aux travaux concernant l’amélioration de la résistance du peuplier aux pathogènes et insectes phytophages, la physiologie et la génétique des arbres et de la formation du bois. Elle contribuera aussi à mieux comprendre l’évolution des Angiospermes.
 </t>
         </is>
       </c>
